--- a/hes2020/kira/sözleşmeler/21_Doğuş/21 HSP adem duman.xlsx
+++ b/hes2020/kira/sözleşmeler/21_Doğuş/21 HSP adem duman.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" state="visible" r:id="rId2"/>
@@ -817,9 +817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -828,8 +828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="322560"/>
-          <a:ext cx="1689120" cy="5441760"/>
+          <a:off x="1923840" y="322560"/>
+          <a:ext cx="2082600" cy="5441400"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -879,9 +879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -890,8 +890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="6611760"/>
-          <a:ext cx="1689120" cy="5492520"/>
+          <a:off x="1923840" y="6611760"/>
+          <a:ext cx="2082600" cy="5492160"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -941,9 +941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -952,8 +952,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="13055040"/>
-          <a:ext cx="1689120" cy="5401800"/>
+          <a:off x="1923840" y="13055040"/>
+          <a:ext cx="2082600" cy="5401440"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1003,9 +1003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1014,8 +1014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="19100520"/>
-          <a:ext cx="1689120" cy="5401800"/>
+          <a:off x="1923840" y="19100520"/>
+          <a:ext cx="2082600" cy="5401440"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1065,9 +1065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1076,8 +1076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="25448040"/>
-          <a:ext cx="1689120" cy="5401800"/>
+          <a:off x="1923840" y="25448040"/>
+          <a:ext cx="2082600" cy="5401440"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1127,9 +1127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1138,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="31746600"/>
-          <a:ext cx="1689480" cy="5445720"/>
+          <a:off x="1923840" y="31746600"/>
+          <a:ext cx="2082960" cy="5445360"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1189,9 +1189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1200,8 +1200,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="37791720"/>
-          <a:ext cx="1689480" cy="5445720"/>
+          <a:off x="1923840" y="37791720"/>
+          <a:ext cx="2082960" cy="5445360"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1251,9 +1251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>164</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1262,8 +1262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="44139240"/>
-          <a:ext cx="1689480" cy="5445720"/>
+          <a:off x="1923840" y="44139240"/>
+          <a:ext cx="2082960" cy="5445360"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1313,9 +1313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>185</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1324,8 +1324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="50486760"/>
-          <a:ext cx="1689480" cy="5445720"/>
+          <a:off x="1923840" y="50486760"/>
+          <a:ext cx="2082960" cy="5445360"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1375,9 +1375,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1386,8 +1386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="56531880"/>
-          <a:ext cx="1689480" cy="5445720"/>
+          <a:off x="1923840" y="56531880"/>
+          <a:ext cx="2082960" cy="5445360"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1437,9 +1437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1448,8 +1448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="62879400"/>
-          <a:ext cx="1689480" cy="5445720"/>
+          <a:off x="1923840" y="62879400"/>
+          <a:ext cx="2082960" cy="5445360"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1499,9 +1499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>247</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1510,8 +1510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1856160" y="69226920"/>
-          <a:ext cx="1689480" cy="5445720"/>
+          <a:off x="1923840" y="69226920"/>
+          <a:ext cx="2082960" cy="5445360"/>
         </a:xfrm>
         <a:prstGeom prst="bracePair">
           <a:avLst>
@@ -1562,11 +1562,11 @@
   </sheetPr>
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11:F24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.91"/>
@@ -1640,6 +1640,13 @@
       </c>
       <c r="C11" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <f aca="false">F10+E11</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,14 +1859,14 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="F11:F24 C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="26.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="86.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="86.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="6" width="9.13"/>
   </cols>
   <sheetData>
@@ -2066,19 +2073,19 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="1" sqref="F11:F24 H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="15.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="20.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="21.64"/>
   </cols>
   <sheetData>
@@ -2531,10 +2538,10 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A84" activeCellId="1" sqref="F11:F24 A84"/>
+      <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="23.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="23.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="32" width="3.98"/>
@@ -2550,7 +2557,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="32" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="32" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="32" width="2.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="32" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="32" width="28.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="32" width="1.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="32" width="9.13"/>
   </cols>
